--- a/Dataset/Survei_Tingkat_Kepuasan_SIGNAL_Tambahan.xlsx
+++ b/Dataset/Survei_Tingkat_Kepuasan_SIGNAL_Tambahan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telkomuniversityofficial-my.sharepoint.com/personal/viviindah_student_telkomuniversity_ac_id/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zalfa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{652FE377-51E5-43CE-80C8-B8937A197134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2B1720-2A4A-45B3-B04E-D0208C21355B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="95">
   <si>
     <t>Id</t>
   </si>
@@ -31,12 +31,6 @@
     <t>Completion time</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Nama Lengkap</t>
   </si>
   <si>
@@ -52,40 +46,12 @@
     <t>Pekerjaan</t>
   </si>
   <si>
-    <t>Aplikasi SIGNAL memiliki tampilan yang mudah dipahami dan digunakan.</t>
-  </si>
-  <si>
-    <t>Panduan atau instruksi dalam aplikasi cukup jelas untuk membantu saya 
-dalam menggunakan layanan pajak kendaraan.</t>
-  </si>
-  <si>
-    <t>Proses pembayaran pajak kendaraan melalui aplikasi lebih mudah dibandingkan metode lainnya.</t>
-  </si>
-  <si>
-    <t>Proses pembayaran pajak kendaraan melalui aplikasi lebih mudah dibandingkan metode lainnya.1</t>
-  </si>
-  <si>
-    <t>Aplikasi ini memiliki fitur yang membantu saya dalam memenuhi kewajiban pajak kendaraan..</t>
-  </si>
-  <si>
-    <t>Informasi yang disajikan dalam aplikasi (misalnya jatuh tempo pajak) akurat dan mudah diakses.</t>
-  </si>
-  <si>
-    <t>Notifikasi dan pengingat dalam aplikasi sangat membantu saya dalam membayar pajak tepat waktu..</t>
-  </si>
-  <si>
-    <t>Secara keseluruhan, saya puas dengan pengalaman menggunakan aplikasi SIGNAL.</t>
-  </si>
-  <si>
     <t>Apa kendala atau kesulitan utama yang Anda alami saat menggunakan aplikasi ini?</t>
   </si>
   <si>
     <t>Fitur apa yang menurut Anda perlu ditambahkan atau ditingkatkan untuk meningkatkan kenyamanan penggunaan aplikasi?</t>
   </si>
   <si>
-    <t>anonymous</t>
-  </si>
-  <si>
     <t>Dewi Sartika</t>
   </si>
   <si>
@@ -318,6 +284,27 @@
   </si>
   <si>
     <t>Dian Alva Reza</t>
+  </si>
+  <si>
+    <t>Aplikasi SIGNAL memiliki tampilan yang mudah dipahami dan digunakan</t>
+  </si>
+  <si>
+    <t>Panduan atau instruksi dalam aplikasi cukup jelas untuk membantu saya dalam menggunakan layanan pajak kendaraan</t>
+  </si>
+  <si>
+    <t>Proses pembayaran pajak kendaraan melalui aplikasi lebih mudah dibandingkan metode lainnya</t>
+  </si>
+  <si>
+    <t>Aplikasi ini memiliki fitur yang membantu saya dalam memenuhi kewajiban pajak kendaraan</t>
+  </si>
+  <si>
+    <t>Informasi yang disajikan dalam aplikasi (misalnya jatuh tempo pajak) akurat dan mudah diakses</t>
+  </si>
+  <si>
+    <t>Notifikasi dan pengingat dalam aplikasi sangat membantu saya dalam membayar pajak tepat waktu</t>
+  </si>
+  <si>
+    <t>Secara keseluruhan, saya puas dengan pengalaman menggunakan aplikasi SIGNAL</t>
   </si>
 </sst>
 </file>
@@ -379,12 +366,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,36 +682,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T51"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="62.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="104.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="83.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="84.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="81" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="83.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="87.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="71" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="71.36328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="106.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="62.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="104.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="83.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="84.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="81" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="83.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="87.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="71" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="71.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="106.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,47 +731,41 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -791,55 +776,52 @@
         <v>45721.53738425926</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2">
-        <v>22</v>
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="L2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="M2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="N2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="O2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="P2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="Q2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="R2" t="s">
         <v>74</v>
       </c>
-      <c r="S2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -850,55 +832,52 @@
         <v>45721.801041666673</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3">
-        <v>21</v>
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="L3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="M3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="N3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="Q3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="R3" t="s">
-        <v>74</v>
-      </c>
-      <c r="S3" t="s">
-        <v>77</v>
-      </c>
-      <c r="T3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -909,55 +888,52 @@
         <v>45721.844108796293</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="N4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="O4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="P4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="Q4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="R4" t="s">
-        <v>74</v>
-      </c>
-      <c r="S4" t="s">
-        <v>78</v>
-      </c>
-      <c r="T4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -968,55 +944,52 @@
         <v>45721.844502314823</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5">
-        <v>21</v>
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="M5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="P5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="Q5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="R5" t="s">
-        <v>74</v>
-      </c>
-      <c r="S5" t="s">
-        <v>79</v>
-      </c>
-      <c r="T5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1027,55 +1000,52 @@
         <v>45721.860925925917</v>
       </c>
       <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6">
-        <v>20</v>
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" t="s">
         <v>69</v>
       </c>
-      <c r="K6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L6" t="s">
-        <v>74</v>
-      </c>
-      <c r="M6" t="s">
-        <v>74</v>
-      </c>
-      <c r="N6" t="s">
-        <v>74</v>
-      </c>
-      <c r="O6" t="s">
-        <v>74</v>
-      </c>
-      <c r="P6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>74</v>
-      </c>
       <c r="R6" t="s">
-        <v>74</v>
-      </c>
-      <c r="S6" t="s">
-        <v>80</v>
-      </c>
-      <c r="T6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1086,55 +1056,52 @@
         <v>45722.185787037037</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7">
-        <v>21</v>
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="L7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="M7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="N7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="O7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="P7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="Q7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="R7" t="s">
-        <v>74</v>
-      </c>
-      <c r="S7" t="s">
-        <v>81</v>
-      </c>
-      <c r="T7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1145,55 +1112,52 @@
         <v>45722.591574074067</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8">
-        <v>30</v>
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K8" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="L8" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="M8" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="N8" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="O8" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="P8" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="Q8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="R8" t="s">
-        <v>75</v>
-      </c>
-      <c r="S8" t="s">
-        <v>82</v>
-      </c>
-      <c r="T8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1204,55 +1168,52 @@
         <v>45722.609675925924</v>
       </c>
       <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9">
-        <v>20</v>
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K9" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="L9" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="M9" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="N9" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="O9" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="P9" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="Q9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R9" t="s">
-        <v>74</v>
-      </c>
-      <c r="S9" t="s">
-        <v>83</v>
-      </c>
-      <c r="T9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1263,55 +1224,52 @@
         <v>45722.862627314818</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10">
-        <v>30</v>
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J10" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="L10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="M10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="N10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="O10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="P10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="Q10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R10" t="s">
-        <v>74</v>
-      </c>
-      <c r="S10" t="s">
-        <v>82</v>
-      </c>
-      <c r="T10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1322,55 +1280,52 @@
         <v>45722.18472222222</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J11" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K11" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>68</v>
+      </c>
+      <c r="R11" t="s">
         <v>74</v>
       </c>
-      <c r="L11" t="s">
-        <v>74</v>
-      </c>
-      <c r="M11" t="s">
-        <v>76</v>
-      </c>
-      <c r="N11" t="s">
-        <v>74</v>
-      </c>
-      <c r="O11" t="s">
-        <v>74</v>
-      </c>
-      <c r="P11" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>74</v>
-      </c>
-      <c r="R11" t="s">
-        <v>76</v>
-      </c>
-      <c r="S11" t="s">
-        <v>79</v>
-      </c>
-      <c r="T11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1383,53 +1338,50 @@
       <c r="D12" t="s">
         <v>20</v>
       </c>
+      <c r="E12">
+        <v>36</v>
+      </c>
       <c r="F12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K12" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N12" t="s">
+        <v>63</v>
+      </c>
+      <c r="O12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>73</v>
+      </c>
+      <c r="R12" t="s">
         <v>74</v>
       </c>
-      <c r="L12" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12" t="s">
-        <v>74</v>
-      </c>
-      <c r="N12" t="s">
-        <v>76</v>
-      </c>
-      <c r="O12" t="s">
-        <v>74</v>
-      </c>
-      <c r="P12" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>76</v>
-      </c>
-      <c r="R12" t="s">
-        <v>76</v>
-      </c>
-      <c r="S12" t="s">
-        <v>84</v>
-      </c>
-      <c r="T12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1440,55 +1392,52 @@
         <v>45722.168749999997</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K13" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="L13" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="M13" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="N13" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="O13" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="P13" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="Q13" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="R13" t="s">
-        <v>76</v>
-      </c>
-      <c r="S13" t="s">
-        <v>77</v>
-      </c>
-      <c r="T13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1499,55 +1448,52 @@
         <v>45721.970138888893</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14">
-        <v>31</v>
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="J14" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K14" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="L14" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="M14" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="N14" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="O14" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P14" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="Q14" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="R14" t="s">
-        <v>76</v>
-      </c>
-      <c r="S14" t="s">
-        <v>77</v>
-      </c>
-      <c r="T14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1558,55 +1504,52 @@
         <v>45721.711805555547</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15">
-        <v>23</v>
+        <v>44</v>
+      </c>
+      <c r="G15" t="s">
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K15" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="L15" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="M15" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="N15" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="O15" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="P15" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="Q15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="R15" t="s">
-        <v>76</v>
-      </c>
-      <c r="S15" t="s">
-        <v>79</v>
-      </c>
-      <c r="T15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1617,55 +1560,52 @@
         <v>45721.977777777778</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16">
-        <v>26</v>
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="J16" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="K16" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="L16" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="M16" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="N16" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="O16" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="P16" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="Q16" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="R16" t="s">
-        <v>76</v>
-      </c>
-      <c r="S16" t="s">
-        <v>77</v>
-      </c>
-      <c r="T16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1676,55 +1616,52 @@
         <v>45721.602083333331</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="G17" t="s">
+        <v>54</v>
       </c>
       <c r="H17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I17" t="s">
         <v>65</v>
       </c>
       <c r="J17" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="L17" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="M17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="N17" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="O17" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="P17" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="Q17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R17" t="s">
         <v>74</v>
       </c>
-      <c r="S17" t="s">
-        <v>82</v>
-      </c>
-      <c r="T17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1735,55 +1672,52 @@
         <v>45721.835416666669</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18">
-        <v>30</v>
+        <v>44</v>
+      </c>
+      <c r="G18" t="s">
+        <v>55</v>
       </c>
       <c r="H18" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J18" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" t="s">
+        <v>63</v>
+      </c>
+      <c r="M18" t="s">
+        <v>65</v>
+      </c>
+      <c r="N18" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" t="s">
+        <v>65</v>
+      </c>
+      <c r="P18" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q18" t="s">
         <v>71</v>
       </c>
-      <c r="K18" t="s">
-        <v>74</v>
-      </c>
-      <c r="L18" t="s">
-        <v>76</v>
-      </c>
-      <c r="M18" t="s">
-        <v>74</v>
-      </c>
-      <c r="N18" t="s">
-        <v>74</v>
-      </c>
-      <c r="O18" t="s">
-        <v>76</v>
-      </c>
-      <c r="P18" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>76</v>
-      </c>
       <c r="R18" t="s">
-        <v>76</v>
-      </c>
-      <c r="S18" t="s">
-        <v>82</v>
-      </c>
-      <c r="T18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1794,55 +1728,52 @@
         <v>45722.023611111108</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I19" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="J19" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K19" t="s">
+        <v>65</v>
+      </c>
+      <c r="L19" t="s">
+        <v>65</v>
+      </c>
+      <c r="M19" t="s">
+        <v>65</v>
+      </c>
+      <c r="N19" t="s">
+        <v>65</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>68</v>
+      </c>
+      <c r="R19" t="s">
         <v>74</v>
       </c>
-      <c r="L19" t="s">
-        <v>76</v>
-      </c>
-      <c r="M19" t="s">
-        <v>76</v>
-      </c>
-      <c r="N19" t="s">
-        <v>76</v>
-      </c>
-      <c r="O19" t="s">
-        <v>76</v>
-      </c>
-      <c r="P19" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>74</v>
-      </c>
-      <c r="R19" t="s">
-        <v>76</v>
-      </c>
-      <c r="S19" t="s">
-        <v>79</v>
-      </c>
-      <c r="T19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1853,55 +1784,52 @@
         <v>45721.673611111109</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20">
-        <v>32</v>
+        <v>44</v>
+      </c>
+      <c r="G20" t="s">
+        <v>53</v>
       </c>
       <c r="H20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J20" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K20" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="L20" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="M20" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="N20" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="O20" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P20" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="Q20" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="R20" t="s">
-        <v>76</v>
-      </c>
-      <c r="S20" t="s">
-        <v>77</v>
-      </c>
-      <c r="T20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1912,55 +1840,52 @@
         <v>45721.979861111111</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="G21" t="s">
+        <v>52</v>
       </c>
       <c r="H21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I21" t="s">
         <v>63</v>
       </c>
       <c r="J21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K21" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L21" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="M21" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="N21" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="O21" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P21" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="Q21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R21" t="s">
-        <v>74</v>
-      </c>
-      <c r="S21" t="s">
-        <v>84</v>
-      </c>
-      <c r="T21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1971,55 +1896,52 @@
         <v>45721.960416666669</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="E22">
+        <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22">
-        <v>18</v>
+        <v>44</v>
+      </c>
+      <c r="G22" t="s">
+        <v>52</v>
       </c>
       <c r="H22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J22" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K22" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="L22" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="M22" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="N22" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="O22" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="P22" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="Q22" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="R22" t="s">
-        <v>76</v>
-      </c>
-      <c r="S22" t="s">
-        <v>77</v>
-      </c>
-      <c r="T22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2032,53 +1954,50 @@
       <c r="D23" t="s">
         <v>20</v>
       </c>
+      <c r="E23">
+        <v>34</v>
+      </c>
       <c r="F23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23">
-        <v>34</v>
+        <v>43</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I23" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="J23" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K23" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="L23" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="M23" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="N23" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="O23" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P23" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="Q23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R23" t="s">
-        <v>76</v>
-      </c>
-      <c r="S23" t="s">
-        <v>84</v>
-      </c>
-      <c r="T23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2089,55 +2008,52 @@
         <v>45722.074999999997</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="G24" t="s">
+        <v>56</v>
       </c>
       <c r="H24" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J24" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K24" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="L24" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="M24" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="N24" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="O24" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="P24" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="Q24" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="R24" t="s">
-        <v>76</v>
-      </c>
-      <c r="S24" t="s">
-        <v>77</v>
-      </c>
-      <c r="T24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2148,55 +2064,52 @@
         <v>45722.134722222218</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="E25">
+        <v>28</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25">
-        <v>28</v>
+        <v>44</v>
+      </c>
+      <c r="G25" t="s">
+        <v>56</v>
       </c>
       <c r="H25" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I25" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J25" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K25" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="L25" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="M25" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="N25" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="O25" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="P25" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="Q25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R25" t="s">
-        <v>74</v>
-      </c>
-      <c r="S25" t="s">
-        <v>84</v>
-      </c>
-      <c r="T25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2207,55 +2120,52 @@
         <v>45722.072222222218</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="E26">
+        <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26">
-        <v>25</v>
+        <v>43</v>
+      </c>
+      <c r="G26" t="s">
+        <v>56</v>
       </c>
       <c r="H26" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J26" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K26" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="L26" t="s">
+        <v>65</v>
+      </c>
+      <c r="M26" t="s">
+        <v>63</v>
+      </c>
+      <c r="N26" t="s">
+        <v>65</v>
+      </c>
+      <c r="O26" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>68</v>
+      </c>
+      <c r="R26" t="s">
         <v>74</v>
       </c>
-      <c r="M26" t="s">
-        <v>76</v>
-      </c>
-      <c r="N26" t="s">
-        <v>76</v>
-      </c>
-      <c r="O26" t="s">
-        <v>74</v>
-      </c>
-      <c r="P26" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>76</v>
-      </c>
-      <c r="R26" t="s">
-        <v>76</v>
-      </c>
-      <c r="S26" t="s">
-        <v>79</v>
-      </c>
-      <c r="T26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2266,55 +2176,52 @@
         <v>45721.990277777782</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>31</v>
+      </c>
+      <c r="E27">
+        <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27">
-        <v>19</v>
+        <v>44</v>
+      </c>
+      <c r="G27" t="s">
+        <v>54</v>
       </c>
       <c r="H27" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J27" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K27" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="L27" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="M27" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="N27" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="O27" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="P27" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="Q27" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="R27" t="s">
-        <v>76</v>
-      </c>
-      <c r="S27" t="s">
-        <v>79</v>
-      </c>
-      <c r="T27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2325,55 +2232,52 @@
         <v>45722.007638888892</v>
       </c>
       <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28">
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28">
-        <v>20</v>
+        <v>44</v>
+      </c>
+      <c r="G28" t="s">
+        <v>52</v>
       </c>
       <c r="H28" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J28" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K28" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="L28" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="M28" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="N28" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="O28" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P28" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="Q28" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="R28" t="s">
         <v>74</v>
       </c>
-      <c r="S28" t="s">
-        <v>79</v>
-      </c>
-      <c r="T28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2384,55 +2288,52 @@
         <v>45721.945138888892</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="E29">
+        <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29">
-        <v>19</v>
+        <v>43</v>
+      </c>
+      <c r="G29" t="s">
+        <v>57</v>
       </c>
       <c r="H29" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I29" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J29" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="K29" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L29" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="M29" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="N29" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="O29" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="P29" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="Q29" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="R29" t="s">
-        <v>74</v>
-      </c>
-      <c r="S29" t="s">
-        <v>77</v>
-      </c>
-      <c r="T29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2443,55 +2344,52 @@
         <v>45721.659722222219</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>34</v>
+      </c>
+      <c r="E30">
+        <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30">
-        <v>22</v>
+        <v>44</v>
+      </c>
+      <c r="G30" t="s">
+        <v>57</v>
       </c>
       <c r="H30" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J30" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K30" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="L30" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="M30" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="N30" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="O30" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="P30" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="Q30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R30" t="s">
-        <v>76</v>
-      </c>
-      <c r="S30" t="s">
-        <v>84</v>
-      </c>
-      <c r="T30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2502,55 +2400,52 @@
         <v>45721.959722222222</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>84</v>
+      </c>
+      <c r="E31">
+        <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>95</v>
-      </c>
-      <c r="G31">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="G31" t="s">
+        <v>54</v>
       </c>
       <c r="H31" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I31" t="s">
         <v>65</v>
       </c>
       <c r="J31" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K31" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="L31" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="M31" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="N31" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="O31" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="P31" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="Q31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R31" t="s">
-        <v>74</v>
-      </c>
-      <c r="S31" t="s">
-        <v>84</v>
-      </c>
-      <c r="T31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2561,55 +2456,52 @@
         <v>45721.899305555547</v>
       </c>
       <c r="D32" t="s">
-        <v>20</v>
+        <v>81</v>
+      </c>
+      <c r="E32">
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G32">
         <v>44</v>
       </c>
+      <c r="G32" t="s">
+        <v>57</v>
+      </c>
       <c r="H32" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J32" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="K32" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="L32" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="M32" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="N32" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="O32" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="P32" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="Q32" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="R32" t="s">
-        <v>76</v>
-      </c>
-      <c r="S32" t="s">
-        <v>77</v>
-      </c>
-      <c r="T32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2620,55 +2512,52 @@
         <v>45721.854166666657</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="E33">
+        <v>40</v>
       </c>
       <c r="F33" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" t="s">
         <v>46</v>
       </c>
-      <c r="G33">
-        <v>40</v>
-      </c>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I33" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J33" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K33" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="L33" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="M33" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="N33" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="O33" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="P33" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="Q33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R33" t="s">
-        <v>76</v>
-      </c>
-      <c r="S33" t="s">
-        <v>84</v>
-      </c>
-      <c r="T33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2679,55 +2568,52 @@
         <v>45721.865972222222</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>36</v>
+      </c>
+      <c r="E34">
+        <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I34" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="J34" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K34" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="L34" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="M34" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="N34" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="O34" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="P34" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="Q34" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="R34" t="s">
-        <v>74</v>
-      </c>
-      <c r="S34" t="s">
-        <v>77</v>
-      </c>
-      <c r="T34" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2738,55 +2624,52 @@
         <v>45721.936111111107</v>
       </c>
       <c r="D35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35">
         <v>20</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35">
-        <v>20</v>
+        <v>43</v>
+      </c>
+      <c r="G35" t="s">
+        <v>56</v>
       </c>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I35" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J35" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K35" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="L35" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="M35" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="N35" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="O35" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="P35" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="Q35" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R35" t="s">
-        <v>74</v>
-      </c>
-      <c r="S35" t="s">
-        <v>84</v>
-      </c>
-      <c r="T35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2797,55 +2680,52 @@
         <v>45721.793055555558</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="E36">
+        <v>29</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
-      </c>
-      <c r="G36">
-        <v>29</v>
+        <v>44</v>
+      </c>
+      <c r="G36" t="s">
+        <v>52</v>
       </c>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I36" t="s">
         <v>63</v>
       </c>
       <c r="J36" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K36" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="L36" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="M36" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="N36" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="O36" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="P36" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="Q36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R36" t="s">
-        <v>76</v>
-      </c>
-      <c r="S36" t="s">
-        <v>84</v>
-      </c>
-      <c r="T36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2856,55 +2736,52 @@
         <v>45722.119444444441</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="E37">
+        <v>27</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37">
-        <v>27</v>
+        <v>43</v>
+      </c>
+      <c r="G37" t="s">
+        <v>56</v>
       </c>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J37" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K37" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="L37" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="M37" t="s">
+        <v>65</v>
+      </c>
+      <c r="N37" t="s">
+        <v>63</v>
+      </c>
+      <c r="O37" t="s">
+        <v>65</v>
+      </c>
+      <c r="P37" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>73</v>
+      </c>
+      <c r="R37" t="s">
         <v>74</v>
       </c>
-      <c r="N37" t="s">
-        <v>76</v>
-      </c>
-      <c r="O37" t="s">
-        <v>76</v>
-      </c>
-      <c r="P37" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>76</v>
-      </c>
-      <c r="R37" t="s">
-        <v>76</v>
-      </c>
-      <c r="S37" t="s">
-        <v>84</v>
-      </c>
-      <c r="T37" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2915,55 +2792,52 @@
         <v>45722.130555555559</v>
       </c>
       <c r="D38" t="s">
-        <v>20</v>
+        <v>38</v>
+      </c>
+      <c r="E38">
+        <v>39</v>
       </c>
       <c r="F38" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="G38" t="s">
+        <v>52</v>
       </c>
       <c r="H38" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I38" t="s">
         <v>63</v>
       </c>
       <c r="J38" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K38" t="s">
+        <v>63</v>
+      </c>
+      <c r="L38" t="s">
+        <v>63</v>
+      </c>
+      <c r="M38" t="s">
+        <v>65</v>
+      </c>
+      <c r="N38" t="s">
+        <v>63</v>
+      </c>
+      <c r="O38" t="s">
+        <v>63</v>
+      </c>
+      <c r="P38" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>68</v>
+      </c>
+      <c r="R38" t="s">
         <v>74</v>
       </c>
-      <c r="L38" t="s">
-        <v>74</v>
-      </c>
-      <c r="M38" t="s">
-        <v>74</v>
-      </c>
-      <c r="N38" t="s">
-        <v>74</v>
-      </c>
-      <c r="O38" t="s">
-        <v>76</v>
-      </c>
-      <c r="P38" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>74</v>
-      </c>
-      <c r="R38" t="s">
-        <v>76</v>
-      </c>
-      <c r="S38" t="s">
-        <v>79</v>
-      </c>
-      <c r="T38" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2974,55 +2848,52 @@
         <v>45721.97152777778</v>
       </c>
       <c r="D39" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="E39">
+        <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
-      </c>
-      <c r="G39">
-        <v>30</v>
+        <v>43</v>
+      </c>
+      <c r="G39" t="s">
+        <v>53</v>
       </c>
       <c r="H39" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J39" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K39" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="L39" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="M39" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="N39" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="O39" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P39" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="Q39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R39" t="s">
-        <v>76</v>
-      </c>
-      <c r="S39" t="s">
-        <v>84</v>
-      </c>
-      <c r="T39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3033,55 +2904,52 @@
         <v>45722.111805555563</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>87</v>
+      </c>
+      <c r="E40">
+        <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>98</v>
-      </c>
-      <c r="G40">
-        <v>22</v>
+        <v>44</v>
+      </c>
+      <c r="G40" t="s">
+        <v>55</v>
       </c>
       <c r="H40" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J40" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="K40" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="L40" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="M40" t="s">
+        <v>63</v>
+      </c>
+      <c r="N40" t="s">
+        <v>65</v>
+      </c>
+      <c r="O40" t="s">
+        <v>65</v>
+      </c>
+      <c r="P40" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>71</v>
+      </c>
+      <c r="R40" t="s">
         <v>74</v>
       </c>
-      <c r="N40" t="s">
-        <v>76</v>
-      </c>
-      <c r="O40" t="s">
-        <v>74</v>
-      </c>
-      <c r="P40" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>76</v>
-      </c>
-      <c r="R40" t="s">
-        <v>76</v>
-      </c>
-      <c r="S40" t="s">
-        <v>82</v>
-      </c>
-      <c r="T40" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3094,53 +2962,50 @@
       <c r="D41" t="s">
         <v>20</v>
       </c>
+      <c r="E41">
+        <v>40</v>
+      </c>
       <c r="F41" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="G41" t="s">
+        <v>53</v>
       </c>
       <c r="H41" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J41" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="K41" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L41" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="M41" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="N41" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="O41" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="P41" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="Q41" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="R41" t="s">
-        <v>76</v>
-      </c>
-      <c r="S41" t="s">
-        <v>82</v>
-      </c>
-      <c r="T41" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3151,55 +3016,52 @@
         <v>45721.560416666667</v>
       </c>
       <c r="D42" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="E42">
+        <v>46</v>
       </c>
       <c r="F42" t="s">
-        <v>51</v>
-      </c>
-      <c r="G42">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="G42" t="s">
+        <v>55</v>
       </c>
       <c r="H42" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I42" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J42" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K42" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L42" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="M42" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="N42" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="O42" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="P42" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="Q42" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="R42" t="s">
         <v>74</v>
       </c>
-      <c r="S42" t="s">
-        <v>82</v>
-      </c>
-      <c r="T42" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3210,55 +3072,52 @@
         <v>45722.043749999997</v>
       </c>
       <c r="D43" t="s">
-        <v>20</v>
+        <v>41</v>
+      </c>
+      <c r="E43">
+        <v>37</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
-      </c>
-      <c r="G43">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="G43" t="s">
+        <v>53</v>
       </c>
       <c r="H43" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J43" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="K43" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="L43" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="M43" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="N43" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="O43" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="P43" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="Q43" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R43" t="s">
-        <v>74</v>
-      </c>
-      <c r="S43" t="s">
-        <v>82</v>
-      </c>
-      <c r="T43" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3269,55 +3128,52 @@
         <v>45722.175000000003</v>
       </c>
       <c r="D44" t="s">
-        <v>20</v>
+        <v>85</v>
+      </c>
+      <c r="E44">
+        <v>40</v>
       </c>
       <c r="F44" t="s">
-        <v>96</v>
-      </c>
-      <c r="G44">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="G44" t="s">
+        <v>55</v>
       </c>
       <c r="H44" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J44" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K44" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="L44" t="s">
+        <v>65</v>
+      </c>
+      <c r="M44" t="s">
+        <v>65</v>
+      </c>
+      <c r="N44" t="s">
+        <v>65</v>
+      </c>
+      <c r="O44" t="s">
+        <v>63</v>
+      </c>
+      <c r="P44" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>68</v>
+      </c>
+      <c r="R44" t="s">
         <v>74</v>
       </c>
-      <c r="M44" t="s">
-        <v>74</v>
-      </c>
-      <c r="N44" t="s">
-        <v>76</v>
-      </c>
-      <c r="O44" t="s">
-        <v>76</v>
-      </c>
-      <c r="P44" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>74</v>
-      </c>
-      <c r="R44" t="s">
-        <v>76</v>
-      </c>
-      <c r="S44" t="s">
-        <v>79</v>
-      </c>
-      <c r="T44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3328,55 +3184,52 @@
         <v>45721.650694444441</v>
       </c>
       <c r="D45" t="s">
-        <v>20</v>
+        <v>83</v>
+      </c>
+      <c r="E45">
+        <v>40</v>
       </c>
       <c r="F45" t="s">
-        <v>94</v>
-      </c>
-      <c r="G45">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="G45" t="s">
+        <v>56</v>
       </c>
       <c r="H45" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J45" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K45" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="L45" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="M45" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="N45" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="O45" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="P45" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="Q45" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="R45" t="s">
-        <v>74</v>
-      </c>
-      <c r="S45" t="s">
-        <v>77</v>
-      </c>
-      <c r="T45" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3387,55 +3240,52 @@
         <v>45721.558333333327</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>82</v>
+      </c>
+      <c r="E46">
+        <v>22</v>
       </c>
       <c r="F46" t="s">
-        <v>93</v>
-      </c>
-      <c r="G46">
-        <v>22</v>
+        <v>44</v>
+      </c>
+      <c r="G46" t="s">
+        <v>52</v>
       </c>
       <c r="H46" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="I46" t="s">
         <v>63</v>
       </c>
       <c r="J46" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="K46" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L46" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="M46" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="N46" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="O46" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="P46" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="Q46" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R46" t="s">
-        <v>74</v>
-      </c>
-      <c r="S46" t="s">
-        <v>82</v>
-      </c>
-      <c r="T46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3446,55 +3296,52 @@
         <v>45721.712500000001</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>42</v>
+      </c>
+      <c r="E47">
+        <v>39</v>
       </c>
       <c r="F47" t="s">
-        <v>53</v>
-      </c>
-      <c r="G47">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I47" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="J47" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K47" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L47" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="M47" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="N47" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="O47" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="P47" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="Q47" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="R47" t="s">
-        <v>74</v>
-      </c>
-      <c r="S47" t="s">
-        <v>77</v>
-      </c>
-      <c r="T47" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3505,55 +3352,52 @@
         <v>45721.995138888888</v>
       </c>
       <c r="D48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48">
         <v>20</v>
       </c>
       <c r="F48" t="s">
+        <v>44</v>
+      </c>
+      <c r="G48" t="s">
         <v>45</v>
       </c>
-      <c r="G48">
-        <v>20</v>
-      </c>
       <c r="H48" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I48" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="J48" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K48" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L48" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="M48" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="N48" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="O48" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="P48" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="Q48" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="R48" t="s">
-        <v>74</v>
-      </c>
-      <c r="S48" t="s">
         <v>79</v>
       </c>
-      <c r="T48" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3564,55 +3408,52 @@
         <v>45721.613888888889</v>
       </c>
       <c r="D49" t="s">
-        <v>20</v>
+        <v>31</v>
+      </c>
+      <c r="E49">
+        <v>25</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
-      </c>
-      <c r="G49">
-        <v>25</v>
+        <v>43</v>
+      </c>
+      <c r="G49" t="s">
+        <v>57</v>
       </c>
       <c r="H49" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I49" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J49" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="K49" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="L49" t="s">
+        <v>63</v>
+      </c>
+      <c r="M49" t="s">
+        <v>65</v>
+      </c>
+      <c r="N49" t="s">
+        <v>65</v>
+      </c>
+      <c r="O49" t="s">
+        <v>65</v>
+      </c>
+      <c r="P49" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>66</v>
+      </c>
+      <c r="R49" t="s">
         <v>74</v>
       </c>
-      <c r="M49" t="s">
-        <v>76</v>
-      </c>
-      <c r="N49" t="s">
-        <v>74</v>
-      </c>
-      <c r="O49" t="s">
-        <v>76</v>
-      </c>
-      <c r="P49" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>76</v>
-      </c>
-      <c r="R49" t="s">
-        <v>76</v>
-      </c>
-      <c r="S49" t="s">
-        <v>77</v>
-      </c>
-      <c r="T49" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3623,55 +3464,52 @@
         <v>45721.773611111108</v>
       </c>
       <c r="D50" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="E50">
+        <v>36</v>
       </c>
       <c r="F50" t="s">
         <v>43</v>
       </c>
-      <c r="G50">
-        <v>36</v>
+      <c r="G50" t="s">
+        <v>54</v>
       </c>
       <c r="H50" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I50" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J50" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K50" t="s">
+        <v>63</v>
+      </c>
+      <c r="L50" t="s">
+        <v>65</v>
+      </c>
+      <c r="M50" t="s">
+        <v>65</v>
+      </c>
+      <c r="N50" t="s">
+        <v>65</v>
+      </c>
+      <c r="O50" t="s">
+        <v>63</v>
+      </c>
+      <c r="P50" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>66</v>
+      </c>
+      <c r="R50" t="s">
         <v>74</v>
       </c>
-      <c r="L50" t="s">
-        <v>76</v>
-      </c>
-      <c r="M50" t="s">
-        <v>74</v>
-      </c>
-      <c r="N50" t="s">
-        <v>76</v>
-      </c>
-      <c r="O50" t="s">
-        <v>76</v>
-      </c>
-      <c r="P50" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>74</v>
-      </c>
-      <c r="R50" t="s">
-        <v>76</v>
-      </c>
-      <c r="S50" t="s">
-        <v>77</v>
-      </c>
-      <c r="T50" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3682,52 +3520,49 @@
         <v>45721.646527777782</v>
       </c>
       <c r="D51" t="s">
-        <v>20</v>
+        <v>86</v>
+      </c>
+      <c r="E51">
+        <v>33</v>
       </c>
       <c r="F51" t="s">
-        <v>97</v>
-      </c>
-      <c r="G51">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="G51" t="s">
+        <v>54</v>
       </c>
       <c r="H51" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I51" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J51" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K51" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L51" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="M51" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="N51" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="O51" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="P51" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="Q51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R51" t="s">
-        <v>76</v>
-      </c>
-      <c r="S51" t="s">
-        <v>84</v>
-      </c>
-      <c r="T51" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/Survei_Tingkat_Kepuasan_SIGNAL_Tambahan.xlsx
+++ b/Dataset/Survei_Tingkat_Kepuasan_SIGNAL_Tambahan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zalfa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2B1720-2A4A-45B3-B04E-D0208C21355B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224D6CD6-4DF8-4C06-8F02-F7077FF4824F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="95">
   <si>
     <t>Id</t>
   </si>
@@ -682,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -699,17 +699,16 @@
     <col min="8" max="8" width="16.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="62.7265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="104.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="83.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="84.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="81" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="83.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="87.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="71" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="71.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="106.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="84.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="81" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="83.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="87.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="71" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="71.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="106.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,28 +743,25 @@
         <v>90</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -812,16 +808,13 @@
         <v>63</v>
       </c>
       <c r="P2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -868,16 +861,13 @@
         <v>63</v>
       </c>
       <c r="P3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q3" t="s">
         <v>66</v>
       </c>
-      <c r="R3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -924,16 +914,13 @@
         <v>63</v>
       </c>
       <c r="P4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q4" t="s">
-        <v>67</v>
-      </c>
-      <c r="R4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -980,16 +967,13 @@
         <v>63</v>
       </c>
       <c r="P5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="Q5" t="s">
-        <v>68</v>
-      </c>
-      <c r="R5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1036,16 +1020,13 @@
         <v>63</v>
       </c>
       <c r="P6" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="Q6" t="s">
-        <v>69</v>
-      </c>
-      <c r="R6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1092,16 +1073,13 @@
         <v>63</v>
       </c>
       <c r="P7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="Q7" t="s">
-        <v>70</v>
-      </c>
-      <c r="R7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1148,16 +1126,13 @@
         <v>64</v>
       </c>
       <c r="P8" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q8" t="s">
-        <v>71</v>
-      </c>
-      <c r="R8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1204,16 +1179,13 @@
         <v>63</v>
       </c>
       <c r="P9" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="Q9" t="s">
-        <v>72</v>
-      </c>
-      <c r="R9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1260,16 +1232,13 @@
         <v>63</v>
       </c>
       <c r="P10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="Q10" t="s">
         <v>71</v>
       </c>
-      <c r="R10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1301,7 +1270,7 @@
         <v>63</v>
       </c>
       <c r="K11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L11" t="s">
         <v>63</v>
@@ -1313,19 +1282,16 @@
         <v>63</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q11" t="s">
-        <v>68</v>
-      </c>
-      <c r="R11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1357,31 +1323,28 @@
         <v>65</v>
       </c>
       <c r="K12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M12" t="s">
         <v>63</v>
       </c>
       <c r="N12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O12" t="s">
         <v>65</v>
       </c>
       <c r="P12" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="Q12" t="s">
-        <v>73</v>
-      </c>
-      <c r="R12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1413,7 +1376,7 @@
         <v>65</v>
       </c>
       <c r="K13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L13" t="s">
         <v>65</v>
@@ -1428,16 +1391,13 @@
         <v>65</v>
       </c>
       <c r="P13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q13" t="s">
-        <v>66</v>
-      </c>
-      <c r="R13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1469,13 +1429,13 @@
         <v>63</v>
       </c>
       <c r="K14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N14" t="s">
         <v>65</v>
@@ -1484,16 +1444,13 @@
         <v>65</v>
       </c>
       <c r="P14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q14" t="s">
-        <v>66</v>
-      </c>
-      <c r="R14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1525,7 +1482,7 @@
         <v>65</v>
       </c>
       <c r="K15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L15" t="s">
         <v>65</v>
@@ -1534,22 +1491,19 @@
         <v>65</v>
       </c>
       <c r="N15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q15" t="s">
-        <v>68</v>
-      </c>
-      <c r="R15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1581,31 +1535,28 @@
         <v>65</v>
       </c>
       <c r="K16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L16" t="s">
         <v>65</v>
       </c>
       <c r="M16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N16" t="s">
         <v>63</v>
       </c>
       <c r="O16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q16" t="s">
-        <v>66</v>
-      </c>
-      <c r="R16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1637,31 +1588,28 @@
         <v>63</v>
       </c>
       <c r="K17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M17" t="s">
         <v>65</v>
       </c>
       <c r="N17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O17" t="s">
         <v>63</v>
       </c>
       <c r="P17" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="Q17" t="s">
-        <v>71</v>
-      </c>
-      <c r="R17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1696,28 +1644,25 @@
         <v>63</v>
       </c>
       <c r="L18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O18" t="s">
         <v>65</v>
       </c>
       <c r="P18" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="Q18" t="s">
-        <v>71</v>
-      </c>
-      <c r="R18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1758,22 +1703,19 @@
         <v>65</v>
       </c>
       <c r="N19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P19" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q19" t="s">
-        <v>68</v>
-      </c>
-      <c r="R19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1811,7 +1753,7 @@
         <v>63</v>
       </c>
       <c r="M20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N20" t="s">
         <v>65</v>
@@ -1820,16 +1762,13 @@
         <v>65</v>
       </c>
       <c r="P20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q20" t="s">
-        <v>66</v>
-      </c>
-      <c r="R20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1861,31 +1800,28 @@
         <v>65</v>
       </c>
       <c r="K21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L21" t="s">
         <v>63</v>
       </c>
       <c r="M21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N21" t="s">
         <v>65</v>
       </c>
       <c r="O21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P21" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="Q21" t="s">
-        <v>73</v>
-      </c>
-      <c r="R21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1923,25 +1859,22 @@
         <v>63</v>
       </c>
       <c r="M22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q22" t="s">
         <v>66</v>
       </c>
-      <c r="R22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1973,31 +1906,28 @@
         <v>63</v>
       </c>
       <c r="K23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M23" t="s">
         <v>63</v>
       </c>
       <c r="N23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O23" t="s">
         <v>65</v>
       </c>
       <c r="P23" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="Q23" t="s">
-        <v>73</v>
-      </c>
-      <c r="R23" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2029,7 +1959,7 @@
         <v>63</v>
       </c>
       <c r="K24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L24" t="s">
         <v>65</v>
@@ -2038,22 +1968,19 @@
         <v>65</v>
       </c>
       <c r="N24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q24" t="s">
-        <v>66</v>
-      </c>
-      <c r="R24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2085,7 +2012,7 @@
         <v>65</v>
       </c>
       <c r="K25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L25" t="s">
         <v>65</v>
@@ -2094,22 +2021,19 @@
         <v>65</v>
       </c>
       <c r="N25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O25" t="s">
         <v>63</v>
       </c>
       <c r="P25" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="Q25" t="s">
-        <v>73</v>
-      </c>
-      <c r="R25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2144,10 +2068,10 @@
         <v>65</v>
       </c>
       <c r="L26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N26" t="s">
         <v>65</v>
@@ -2156,16 +2080,13 @@
         <v>65</v>
       </c>
       <c r="P26" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q26" t="s">
-        <v>68</v>
-      </c>
-      <c r="R26" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2200,28 +2121,25 @@
         <v>63</v>
       </c>
       <c r="L27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N27" t="s">
         <v>63</v>
       </c>
       <c r="O27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P27" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q27" t="s">
-        <v>68</v>
-      </c>
-      <c r="R27" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2262,22 +2180,19 @@
         <v>63</v>
       </c>
       <c r="N28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P28" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="Q28" t="s">
-        <v>68</v>
-      </c>
-      <c r="R28" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2315,7 +2230,7 @@
         <v>65</v>
       </c>
       <c r="M29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N29" t="s">
         <v>63</v>
@@ -2324,16 +2239,13 @@
         <v>63</v>
       </c>
       <c r="P29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q29" t="s">
-        <v>66</v>
-      </c>
-      <c r="R29" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2365,31 +2277,28 @@
         <v>65</v>
       </c>
       <c r="K30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L30" t="s">
         <v>65</v>
       </c>
       <c r="M30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O30" t="s">
         <v>65</v>
       </c>
       <c r="P30" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="Q30" t="s">
-        <v>73</v>
-      </c>
-      <c r="R30" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2421,7 +2330,7 @@
         <v>63</v>
       </c>
       <c r="K31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L31" t="s">
         <v>65</v>
@@ -2430,22 +2339,19 @@
         <v>65</v>
       </c>
       <c r="N31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O31" t="s">
         <v>63</v>
       </c>
       <c r="P31" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="Q31" t="s">
-        <v>73</v>
-      </c>
-      <c r="R31" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2477,10 +2383,10 @@
         <v>65</v>
       </c>
       <c r="K32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M32" t="s">
         <v>63</v>
@@ -2489,19 +2395,16 @@
         <v>63</v>
       </c>
       <c r="O32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q32" t="s">
-        <v>66</v>
-      </c>
-      <c r="R32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2545,19 +2448,16 @@
         <v>63</v>
       </c>
       <c r="O33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P33" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="Q33" t="s">
-        <v>73</v>
-      </c>
-      <c r="R33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2598,22 +2498,19 @@
         <v>65</v>
       </c>
       <c r="N34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O34" t="s">
         <v>63</v>
       </c>
       <c r="P34" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q34" t="s">
-        <v>66</v>
-      </c>
-      <c r="R34" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2648,28 +2545,25 @@
         <v>63</v>
       </c>
       <c r="L35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P35" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="Q35" t="s">
-        <v>73</v>
-      </c>
-      <c r="R35" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2707,25 +2601,22 @@
         <v>63</v>
       </c>
       <c r="M36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P36" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="Q36" t="s">
-        <v>73</v>
-      </c>
-      <c r="R36" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2757,31 +2648,28 @@
         <v>65</v>
       </c>
       <c r="K37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L37" t="s">
         <v>65</v>
       </c>
       <c r="M37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O37" t="s">
         <v>65</v>
       </c>
       <c r="P37" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="Q37" t="s">
-        <v>73</v>
-      </c>
-      <c r="R37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2816,28 +2704,25 @@
         <v>63</v>
       </c>
       <c r="L38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N38" t="s">
         <v>63</v>
       </c>
       <c r="O38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P38" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q38" t="s">
-        <v>68</v>
-      </c>
-      <c r="R38" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2875,7 +2760,7 @@
         <v>63</v>
       </c>
       <c r="M39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N39" t="s">
         <v>65</v>
@@ -2884,16 +2769,13 @@
         <v>65</v>
       </c>
       <c r="P39" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="Q39" t="s">
-        <v>73</v>
-      </c>
-      <c r="R39" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2925,13 +2807,13 @@
         <v>65</v>
       </c>
       <c r="K40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N40" t="s">
         <v>65</v>
@@ -2940,16 +2822,13 @@
         <v>65</v>
       </c>
       <c r="P40" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="Q40" t="s">
-        <v>71</v>
-      </c>
-      <c r="R40" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2987,25 +2866,22 @@
         <v>65</v>
       </c>
       <c r="M41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O41" t="s">
         <v>65</v>
       </c>
       <c r="P41" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="Q41" t="s">
-        <v>71</v>
-      </c>
-      <c r="R41" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3043,25 +2919,22 @@
         <v>65</v>
       </c>
       <c r="M42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P42" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="Q42" t="s">
-        <v>71</v>
-      </c>
-      <c r="R42" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3099,25 +2972,22 @@
         <v>63</v>
       </c>
       <c r="M43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N43" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O43" t="s">
         <v>63</v>
       </c>
       <c r="P43" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="Q43" t="s">
-        <v>71</v>
-      </c>
-      <c r="R43" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3149,7 +3019,7 @@
         <v>63</v>
       </c>
       <c r="K44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L44" t="s">
         <v>65</v>
@@ -3158,22 +3028,19 @@
         <v>65</v>
       </c>
       <c r="N44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P44" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q44" t="s">
-        <v>68</v>
-      </c>
-      <c r="R44" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3205,31 +3072,28 @@
         <v>65</v>
       </c>
       <c r="K45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L45" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N45" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O45" t="s">
         <v>63</v>
       </c>
       <c r="P45" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q45" t="s">
-        <v>66</v>
-      </c>
-      <c r="R45" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3261,7 +3125,7 @@
         <v>63</v>
       </c>
       <c r="K46" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L46" t="s">
         <v>63</v>
@@ -3276,16 +3140,13 @@
         <v>63</v>
       </c>
       <c r="P46" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="Q46" t="s">
-        <v>71</v>
-      </c>
-      <c r="R46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3323,25 +3184,22 @@
         <v>65</v>
       </c>
       <c r="M47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P47" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q47" t="s">
-        <v>66</v>
-      </c>
-      <c r="R47" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3373,7 +3231,7 @@
         <v>63</v>
       </c>
       <c r="K48" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L48" t="s">
         <v>63</v>
@@ -3388,16 +3246,13 @@
         <v>63</v>
       </c>
       <c r="P48" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="Q48" t="s">
-        <v>68</v>
-      </c>
-      <c r="R48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3429,10 +3284,10 @@
         <v>63</v>
       </c>
       <c r="K49" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M49" t="s">
         <v>65</v>
@@ -3444,16 +3299,13 @@
         <v>65</v>
       </c>
       <c r="P49" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q49" t="s">
-        <v>66</v>
-      </c>
-      <c r="R49" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3485,7 +3337,7 @@
         <v>65</v>
       </c>
       <c r="K50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L50" t="s">
         <v>65</v>
@@ -3494,22 +3346,19 @@
         <v>65</v>
       </c>
       <c r="N50" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q50" t="s">
-        <v>66</v>
-      </c>
-      <c r="R50" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3550,18 +3399,15 @@
         <v>65</v>
       </c>
       <c r="N51" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P51" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="Q51" t="s">
-        <v>73</v>
-      </c>
-      <c r="R51" t="s">
         <v>66</v>
       </c>
     </row>
